--- a/DATA/IsoData/SJERIsoData.xlsx
+++ b/DATA/IsoData/SJERIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">5e9ddbc1-9d6f-452f-8228-41097cdc9fb7</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fcc39e5f-a48c-436b-99c8-3456b946619b</t>
   </si>
   <si>
     <t xml:space="preserve">SJER.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150429Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70658b84-cf85-40ae-a839-938fedd24a1c</t>
+    <t xml:space="preserve">20210112T154410Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a105886d-86b6-4c74-a71a-f42a5fcad845</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SJER.20190424.1235</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000063612</t>
   </si>
   <si>
-    <t xml:space="preserve">8a743443-6ddd-4dc0-88a6-a800934db8c0</t>
+    <t xml:space="preserve">cb640a82-40dd-4e69-893f-4e5d2a5cbc80</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SJER.20190522.1220</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000063833</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145942Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0f97a49d-0e7e-4ba2-ae9a-4dd6c18c98e9</t>
+    <t xml:space="preserve">20210112T154052Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abbfb0d7-ca3b-4aec-ad66-0729d64f3043</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SJER.20190605.0920</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000063597</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174957Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5c976c6d-4d7f-47c7-826d-a25f4c9d4667</t>
+    <t xml:space="preserve">20210112T154104Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e64bf711-9363-4daf-a3e9-18c311ed0e5d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SJER.20191204.1441</t>
@@ -143,10 +149,10 @@
     <t xml:space="preserve">A00000148589</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171525Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a3d6dfbe-b09e-4aeb-a991-a5bb5b5bd22c</t>
+    <t xml:space="preserve">20210112T151048Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1487c023-d478-4936-8a7c-7397e7fa6daa</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SJER.20191216.1440</t>
@@ -158,7 +164,7 @@
     <t xml:space="preserve">A00000148766</t>
   </si>
   <si>
-    <t xml:space="preserve">0a4e86c2-2d6b-40ba-9801-7f3ddf45b123</t>
+    <t xml:space="preserve">6b4112b5-d8a4-4d12-b8d9-f91bef164f82</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SJER.20191230.1405</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000148768</t>
   </si>
   <si>
-    <t xml:space="preserve">9ae0fbdc-7797-4b5c-99ba-4010ae1e1889</t>
+    <t xml:space="preserve">cc8017e3-03f1-4563-acc0-feec73a60666</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SJER.20200116.1158</t>
@@ -182,10 +188,13 @@
     <t xml:space="preserve">A00000148828</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150332Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7010c91e-4ec6-4867-8a31-d6fb4123f7c8</t>
+    <t xml:space="preserve">20210112T154521Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69f99fb9-b082-4b7a-90b9-277da6fc9bb4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SJER.20200127.1333</t>
@@ -532,7 +541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -586,23 +595,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43551.7048611111</v>
@@ -623,35 +635,38 @@
         <v>0.176</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43654.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43566.7430555556</v>
@@ -672,35 +687,38 @@
         <v>0.114</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43654.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43594.8444444444</v>
@@ -721,35 +739,38 @@
         <v>0.164</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43654.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43607.8090277778</v>
@@ -770,35 +791,38 @@
         <v>0.116</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43790.7430555556</v>
@@ -819,35 +843,38 @@
         <v>0.069</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43803.9451388889</v>
@@ -868,35 +895,38 @@
         <v>0.087</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43815.9444444444</v>
@@ -917,35 +947,38 @@
         <v>0.091</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43829.9201388889</v>
@@ -966,35 +999,38 @@
         <v>0.051</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43846.8319444444</v>
@@ -1015,17 +1051,20 @@
         <v>0.084</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
